--- a/lemon-web/src/main/webapp/document/lemon.xlsx
+++ b/lemon-web/src/main/webapp/document/lemon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18600" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="公共" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
     <t>货运类型表 tb_freight_type</t>
   </si>
   <si>
-    <t>运输信息表 tb_shipping_info</t>
+    <t>运输信息表 tb_shipping</t>
   </si>
   <si>
     <t>id</t>
@@ -699,7 +699,7 @@
     <t>站点描述</t>
   </si>
   <si>
-    <t>仓库信息表 tb_warehouse_info</t>
+    <t>仓库信息表 tb_warehouse</t>
   </si>
   <si>
     <t>web_close_tip</t>
@@ -720,7 +720,7 @@
     <t>war_name</t>
   </si>
   <si>
-    <t>栏目信息表 sys_category_info</t>
+    <t>栏目信息表 sys_category</t>
   </si>
   <si>
     <t>web_census_code</t>
@@ -807,10 +807,10 @@
     <t>类目类型</t>
   </si>
   <si>
-    <t>品牌信息表 tb_brand_info</t>
-  </si>
-  <si>
-    <t>供应商信息表 tb_supplier_info</t>
+    <t>品牌信息表 tb_brand</t>
+  </si>
+  <si>
+    <t>供应商信息表 tb_supplier</t>
   </si>
   <si>
     <t>brand_name</t>
@@ -909,13 +909,13 @@
     <t>sup_explain</t>
   </si>
   <si>
-    <t>部门信息表 tb_department_info</t>
+    <t>部门信息表 sys_dept</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>员工信息表 tb_employee_info</t>
+    <t>员工信息表 tb_employee</t>
   </si>
   <si>
     <t>dep_name</t>
@@ -936,7 +936,7 @@
     <t>emp_tel</t>
   </si>
   <si>
-    <t>职务信息表 tb_post_info</t>
+    <t>职务信息表 sys_post</t>
   </si>
   <si>
     <t>emp_phone</t>
@@ -972,7 +972,7 @@
     <t>出生日期</t>
   </si>
   <si>
-    <t>管理员信息表 tb_admin_info</t>
+    <t>管理员信息表 sys_admin</t>
   </si>
   <si>
     <t>emp_identity</t>
@@ -1032,13 +1032,13 @@
     <t>explain</t>
   </si>
   <si>
-    <t>地区信息表 tb_area_info</t>
-  </si>
-  <si>
-    <t>顾客信息表 tb_customer_info</t>
-  </si>
-  <si>
-    <t>欠款信息表 tb_arrear_info</t>
+    <t>地区信息表 tb_area</t>
+  </si>
+  <si>
+    <t>顾客信息表 tb_customer</t>
+  </si>
+  <si>
+    <t>欠款信息表 tb_arrear</t>
   </si>
   <si>
     <t>area_name</t>
@@ -1200,7 +1200,7 @@
     <t>cus_encrypt</t>
   </si>
   <si>
-    <t>还款信息表 tb_repayment_info</t>
+    <t>还款信息表 tb_repayment</t>
   </si>
   <si>
     <t>cus_type</t>
@@ -1236,7 +1236,7 @@
     <t>商品图片表 tb_commodity_image</t>
   </si>
   <si>
-    <t>商品信息表 tb_commodity_info</t>
+    <t>商品信息表 tb_commodity</t>
   </si>
   <si>
     <t>商品分类表 tb_commodity_category</t>
@@ -1332,7 +1332,7 @@
     <t>ori_name</t>
   </si>
   <si>
-    <t>关注信息表 tb_attention_info</t>
+    <t>关注信息表 tb_attention</t>
   </si>
   <si>
     <t>com_retail</t>
@@ -1392,7 +1392,7 @@
     <t>coso_explain</t>
   </si>
   <si>
-    <t>收藏信息表 tb_collect_info</t>
+    <t>收藏信息表 tb_collect</t>
   </si>
   <si>
     <t>com_created</t>
@@ -1434,10 +1434,10 @@
     <t>coty_explain</t>
   </si>
   <si>
-    <t>出入库信息表 tb_storage_info</t>
-  </si>
-  <si>
-    <t>库存主信息表 tb_inventory_info</t>
+    <t>出入库信息表 tb_storage</t>
+  </si>
+  <si>
+    <t>库存主信息表 tb_inventory</t>
   </si>
   <si>
     <t>stor_created</t>
@@ -1686,7 +1686,7 @@
     <t>公告类型表 tb_anno_type</t>
   </si>
   <si>
-    <t>公告信息表 tb_announcement_info</t>
+    <t>公告信息表 tb_announcement</t>
   </si>
   <si>
     <t>anty_name</t>
@@ -1728,7 +1728,7 @@
     <t>公告类型编号</t>
   </si>
   <si>
-    <t>消息信息表 tb_message_info</t>
+    <t>消息信息表 tb_message</t>
   </si>
   <si>
     <t>消息提示表 tb_message_tip</t>
@@ -1875,7 +1875,7 @@
     <t>cat_created</t>
   </si>
   <si>
-    <t>支付信息表(tb_pay_info)</t>
+    <t>支付信息表(tb_pay)</t>
   </si>
   <si>
     <t>cat_updated</t>
@@ -1953,7 +1953,7 @@
     <t>sell_explain</t>
   </si>
   <si>
-    <t>日志信息表(sys_log_info)</t>
+    <t>日志信息表(sys_log)</t>
   </si>
   <si>
     <t>登录日志表(sys_login_log)</t>
@@ -2031,9 +2031,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2059,8 +2059,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2074,7 +2112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2088,6 +2126,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -2096,14 +2165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2111,30 +2173,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2149,40 +2188,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2191,13 +2198,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2224,7 +2224,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2236,43 +2356,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2284,115 +2386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2523,6 +2523,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2542,16 +2557,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2571,36 +2610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2608,15 +2617,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2628,10 +2628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2640,133 +2640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3178,8 +3178,8 @@
   <sheetPr/>
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:L19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1"/>
@@ -3836,7 +3836,7 @@
   <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="7"/>
@@ -4162,7 +4162,7 @@
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1"/>
@@ -4618,8 +4618,8 @@
   <sheetPr/>
   <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1"/>
@@ -5064,8 +5064,8 @@
   <sheetPr/>
   <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="7"/>
@@ -5365,8 +5365,8 @@
   <sheetPr/>
   <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1"/>
@@ -5805,7 +5805,7 @@
   <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1"/>
@@ -6382,8 +6382,8 @@
   <sheetPr/>
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1"/>
@@ -6984,7 +6984,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="7"/>
@@ -7655,7 +7655,7 @@
   <sheetPr/>
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -7989,7 +7989,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="7"/>
